--- a/orders1.xlsx
+++ b/orders1.xlsx
@@ -11,10 +11,10 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$342</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$334</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Sheet1!$A:$I</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$H$342</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$342</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$H$334</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$334</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="273">
   <si>
     <t xml:space="preserve">SO</t>
   </si>
@@ -688,13 +688,64 @@
     <t xml:space="preserve">grihhdimt glumridi TPhT 181g (6.4) mZ</t>
   </si>
   <si>
-    <t xml:space="preserve">diigi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gd28311300iX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CmmL WkVi gd GL gLRd TPhT 4 mZ 113 G</t>
+    <t xml:space="preserve">dkrditwihi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gd84207500iX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didz Pri htip Tpht 75dl- Wktir dilmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kprplkm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gd04715000iX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gid Uhk Im hhmwir HRC - klmi Virk 150dl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4501729973L6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RdPkprw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umitid ixchkmgi Cmrpmrktimm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gd30418102iX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glumridi Ckvity gightimg TP 181G+Td-24pd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RdPkprw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tmdkh Ridicid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gd262100W0iX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RidI dimTkL WHITimImG TmmTHPkhTi 100 G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kpiirmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gd260117mgiX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kURmdiRimmm gmkdImGTmmTHPkhTi 117G(T)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gd227010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dkdur dihwkd 10gd miw</t>
   </si>
   <si>
     <t xml:space="preserve">dirklk mkturi</t>
@@ -704,87 +755,6 @@
   </si>
   <si>
     <t xml:space="preserve">dihwkd Tmmthpkhti 100g (gR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gd23010000Ud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dihwkd Tmmthpkhti (Ud) 100 dL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gd251100C0Ud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prmdihi TPhT with Clmvi 100dl (Ud)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gC25020000UC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dkdur Rid Pkhti 200gd (Uh/Ckm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dkrditwihi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gd84207500iX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">didz Pri htip Tpht 75dl- Wktir dilmm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kprplkm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gd04715000iX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gid Uhk Im hhmwir HRC - klmi Virk 150dl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4501729973L6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RdPkprw3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Umitid ixchkmgi Cmrpmrktimm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gd30418102iX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glumridi Ckvity gightimg TP 181G+Td-24pd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RdPkprw4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tmdkh Ridicid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gd262100W0iX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RidI dimTkL WHITimImG TmmTHPkhTi 100 G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kpiirmm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gd260117mgiX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kURmdiRimmm gmkdImGTmmTHPkhTi 117G(T)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gd227010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dkdur dihwkd 10gd miw</t>
   </si>
   <si>
     <t xml:space="preserve">gd43213000iX</t>
@@ -1105,16 +1075,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ342"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C270" activeCellId="0" sqref="C270"/>
+      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G:G"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8705,359 +8675,357 @@
         <v>198</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="n">
-        <v>17023335</v>
+        <v>17023433</v>
       </c>
       <c r="B262" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C262" s="8" t="n">
-        <v>43476</v>
+        <v>43510</v>
       </c>
       <c r="D262" s="16" t="n">
-        <v>43563</v>
-      </c>
-      <c r="E262" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F262" s="14" t="n">
-        <v>840</v>
-      </c>
-      <c r="G262" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="H262" s="11" t="n">
+        <v>43570</v>
+      </c>
+      <c r="E262" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F262" s="10" t="n">
+        <v>560</v>
+      </c>
+      <c r="G262" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H262" s="7" t="n">
         <v>1024</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="n">
-        <v>17023637</v>
+        <v>17023438</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C263" s="8" t="n">
-        <v>43518</v>
-      </c>
-      <c r="D263" s="16" t="n">
-        <v>43563</v>
+        <v>220</v>
+      </c>
+      <c r="C263" s="16" t="n">
+        <v>43511</v>
+      </c>
+      <c r="D263" s="8" t="n">
+        <v>43571</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F263" s="10" t="n">
-        <v>896</v>
-      </c>
-      <c r="G263" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="H263" s="7" t="n">
+        <v>221</v>
+      </c>
+      <c r="F263" s="14" t="n">
+        <v>417</v>
+      </c>
+      <c r="G263" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="H263" s="11" t="n">
         <v>1024</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="n">
-        <v>17023637</v>
+        <v>17023377</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C264" s="8" t="n">
-        <v>43518</v>
+        <v>138</v>
+      </c>
+      <c r="C264" s="16" t="n">
+        <v>43482</v>
       </c>
       <c r="D264" s="16" t="n">
-        <v>43563</v>
+        <v>43572</v>
       </c>
       <c r="E264" s="11" t="s">
-        <v>212</v>
+        <v>139</v>
       </c>
       <c r="F264" s="14" t="n">
-        <v>192</v>
+        <v>280</v>
       </c>
       <c r="G264" s="15" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="H264" s="11" t="n">
         <v>1024</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="n">
-        <v>17023439</v>
+        <v>17023434</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C265" s="8" t="n">
-        <v>43511</v>
+        <v>25</v>
+      </c>
+      <c r="C265" s="16" t="n">
+        <v>43510</v>
       </c>
       <c r="D265" s="16" t="n">
-        <v>43564</v>
+        <v>43572</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="F265" s="14" t="n">
-        <v>2700</v>
+        <v>224</v>
       </c>
       <c r="G265" s="15" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="H265" s="11" t="n">
         <v>1024</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="6" t="n">
-        <v>17023440</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="B266" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C266" s="16" t="n">
+        <v>43539</v>
+      </c>
+      <c r="D266" s="16" t="n">
+        <v>43575</v>
+      </c>
+      <c r="E266" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F266" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H266" s="7" t="n">
+        <v>1025</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C266" s="8" t="n">
-        <v>43511</v>
-      </c>
-      <c r="D266" s="16" t="n">
-        <v>43564</v>
-      </c>
-      <c r="E266" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="F266" s="14" t="n">
-        <v>350</v>
-      </c>
-      <c r="G266" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="H266" s="11" t="n">
+      <c r="B267" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C267" s="16" t="n">
+        <v>43539</v>
+      </c>
+      <c r="D267" s="16" t="n">
+        <v>43575</v>
+      </c>
+      <c r="E267" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F267" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G267" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H267" s="11" t="n">
+        <v>1025</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C268" s="16" t="n">
+        <v>43539</v>
+      </c>
+      <c r="D268" s="16" t="n">
+        <v>43575</v>
+      </c>
+      <c r="E268" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F268" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G268" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H268" s="7" t="n">
+        <v>1025</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C269" s="16" t="n">
+        <v>43539</v>
+      </c>
+      <c r="D269" s="16" t="n">
+        <v>43575</v>
+      </c>
+      <c r="E269" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F269" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G269" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H269" s="7" t="n">
+        <v>1025</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C270" s="16" t="n">
+        <v>43539</v>
+      </c>
+      <c r="D270" s="16" t="n">
+        <v>43575</v>
+      </c>
+      <c r="E270" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F270" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G270" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H270" s="7" t="n">
+        <v>1025</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C271" s="16" t="n">
+        <v>43539</v>
+      </c>
+      <c r="D271" s="16" t="n">
+        <v>43575</v>
+      </c>
+      <c r="E271" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F271" s="10" t="n">
+        <v>121</v>
+      </c>
+      <c r="G271" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H271" s="7" t="n">
         <v>1024</v>
       </c>
-      <c r="I266" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="6" t="n">
-        <v>4501763335</v>
-      </c>
-      <c r="B267" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C267" s="8" t="n">
-        <v>43518</v>
-      </c>
-      <c r="D267" s="16" t="n">
-        <v>43569</v>
-      </c>
-      <c r="E267" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F267" s="10" t="n">
+      <c r="I271" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C272" s="16" t="n">
+        <v>43539</v>
+      </c>
+      <c r="D272" s="16" t="n">
+        <v>43575</v>
+      </c>
+      <c r="E272" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F272" s="10" t="n">
+        <v>27</v>
+      </c>
+      <c r="G272" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H272" s="7" t="n">
+        <v>1025</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C273" s="8" t="n">
+        <v>43539</v>
+      </c>
+      <c r="D273" s="16" t="n">
+        <v>43575</v>
+      </c>
+      <c r="E273" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G267" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="H267" s="7" t="n">
-        <v>1024</v>
-      </c>
-      <c r="I267" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="6" t="n">
-        <v>4501763335</v>
-      </c>
-      <c r="B268" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C268" s="8" t="n">
-        <v>43518</v>
-      </c>
-      <c r="D268" s="16" t="n">
-        <v>43569</v>
-      </c>
-      <c r="E268" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="F268" s="14" t="n">
-        <v>108</v>
-      </c>
-      <c r="G268" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="H268" s="11" t="n">
-        <v>1024</v>
-      </c>
-      <c r="I268" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="6" t="n">
-        <v>4501763335</v>
-      </c>
-      <c r="B269" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C269" s="8" t="n">
-        <v>43518</v>
-      </c>
-      <c r="D269" s="16" t="n">
-        <v>43569</v>
-      </c>
-      <c r="E269" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F269" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="G269" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="H269" s="7" t="n">
-        <v>1024</v>
-      </c>
-      <c r="I269" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="6" t="n">
-        <v>17023433</v>
-      </c>
-      <c r="B270" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C270" s="8" t="n">
-        <v>43510</v>
-      </c>
-      <c r="D270" s="16" t="n">
-        <v>43570</v>
-      </c>
-      <c r="E270" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F270" s="10" t="n">
-        <v>560</v>
-      </c>
-      <c r="G270" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="H270" s="7" t="n">
-        <v>1024</v>
-      </c>
-      <c r="I270" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="6" t="n">
-        <v>17023438</v>
-      </c>
-      <c r="B271" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C271" s="16" t="n">
-        <v>43511</v>
-      </c>
-      <c r="D271" s="8" t="n">
-        <v>43571</v>
-      </c>
-      <c r="E271" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F271" s="14" t="n">
-        <v>417</v>
-      </c>
-      <c r="G271" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="H271" s="11" t="n">
-        <v>1024</v>
-      </c>
-      <c r="I271" s="1" t="s">
+      <c r="F273" s="10"/>
+      <c r="G273" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H273" s="11" t="n">
+        <v>1025</v>
+      </c>
+      <c r="I273" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="6" t="n">
-        <v>17023377</v>
-      </c>
-      <c r="B272" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C272" s="16" t="n">
-        <v>43482</v>
-      </c>
-      <c r="D272" s="16" t="n">
-        <v>43572</v>
-      </c>
-      <c r="E272" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F272" s="14" t="n">
-        <v>280</v>
-      </c>
-      <c r="G272" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H272" s="11" t="n">
-        <v>1024</v>
-      </c>
-      <c r="I272" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="6" t="n">
-        <v>17023434</v>
-      </c>
-      <c r="B273" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C273" s="16" t="n">
-        <v>43510</v>
-      </c>
-      <c r="D273" s="16" t="n">
-        <v>43572</v>
-      </c>
-      <c r="E273" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="F273" s="14" t="n">
-        <v>224</v>
-      </c>
-      <c r="G273" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="H273" s="11" t="n">
-        <v>1024</v>
-      </c>
-      <c r="I273" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B274" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B274" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C274" s="16" t="n">
@@ -9066,25 +9034,25 @@
       <c r="D274" s="16" t="n">
         <v>43575</v>
       </c>
-      <c r="E274" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F274" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G274" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H274" s="7" t="n">
+      <c r="E274" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F274" s="14" t="n">
+        <v>320</v>
+      </c>
+      <c r="G274" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H274" s="11" t="n">
         <v>1025</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B275" s="11" t="s">
         <v>37</v>
@@ -9096,102 +9064,102 @@
         <v>43575</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="F275" s="14" t="n">
         <v>0</v>
       </c>
       <c r="G275" s="15" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="H275" s="11" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="6" t="s">
-        <v>236</v>
+      <c r="A276" s="6" t="n">
+        <v>4501720913</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C276" s="16" t="n">
-        <v>43539</v>
+        <v>43403</v>
       </c>
       <c r="D276" s="16" t="n">
-        <v>43575</v>
-      </c>
-      <c r="E276" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F276" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G276" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H276" s="7" t="n">
+        <v>43576</v>
+      </c>
+      <c r="E276" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F276" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G276" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="H276" s="11" t="n">
         <v>1025</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C277" s="16" t="n">
-        <v>43539</v>
+        <v>43437</v>
       </c>
       <c r="D277" s="16" t="n">
-        <v>43575</v>
+        <v>43576</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F277" s="10" t="n">
-        <v>0</v>
+        <v>3560</v>
       </c>
       <c r="G277" s="9" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="H277" s="7" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C278" s="16" t="n">
-        <v>43539</v>
+        <v>43559</v>
       </c>
       <c r="D278" s="16" t="n">
-        <v>43575</v>
-      </c>
-      <c r="E278" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F278" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G278" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H278" s="7" t="n">
+        <v>43576</v>
+      </c>
+      <c r="E278" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F278" s="14" t="n">
+        <v>500</v>
+      </c>
+      <c r="G278" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H278" s="11" t="n">
         <v>1025</v>
       </c>
       <c r="I278" s="1" t="s">
@@ -9199,26 +9167,26 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="6" t="s">
-        <v>236</v>
+      <c r="A279" s="6" t="n">
+        <v>17021922</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>37</v>
+        <v>228</v>
       </c>
       <c r="C279" s="16" t="n">
-        <v>43539</v>
+        <v>43333</v>
       </c>
       <c r="D279" s="16" t="n">
-        <v>43575</v>
+        <v>43577</v>
       </c>
       <c r="E279" s="7" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="F279" s="10" t="n">
-        <v>121</v>
+        <v>1600</v>
       </c>
       <c r="G279" s="9" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="H279" s="7" t="n">
         <v>1024</v>
@@ -9228,29 +9196,29 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B280" s="7" t="s">
-        <v>37</v>
+      <c r="A280" s="6" t="n">
+        <v>17023435</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C280" s="16" t="n">
-        <v>43539</v>
+        <v>43510</v>
       </c>
       <c r="D280" s="16" t="n">
-        <v>43575</v>
+        <v>43577</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="F280" s="10" t="n">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="G280" s="9" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="H280" s="7" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>13</v>
@@ -9258,139 +9226,141 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C281" s="8" t="n">
-        <v>43539</v>
+        <v>18</v>
+      </c>
+      <c r="C281" s="16" t="n">
+        <v>43559</v>
       </c>
       <c r="D281" s="16" t="n">
-        <v>43575</v>
+        <v>43585</v>
       </c>
       <c r="E281" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F281" s="10"/>
-      <c r="G281" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H281" s="11" t="n">
+        <v>76</v>
+      </c>
+      <c r="F281" s="10" t="n">
+        <v>300</v>
+      </c>
+      <c r="G281" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H281" s="7" t="n">
         <v>1025</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B282" s="7" t="s">
-        <v>37</v>
+        <v>231</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C282" s="16" t="n">
-        <v>43539</v>
+        <v>43559</v>
       </c>
       <c r="D282" s="16" t="n">
-        <v>43575</v>
+        <v>43585</v>
       </c>
       <c r="E282" s="11" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F282" s="14" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="G282" s="15" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H282" s="11" t="n">
         <v>1025</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="6" t="s">
-        <v>236</v>
+      <c r="A283" s="6" t="n">
+        <v>17023678</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C283" s="16" t="n">
-        <v>43539</v>
+        <v>43523</v>
       </c>
       <c r="D283" s="16" t="n">
-        <v>43575</v>
+        <v>43586</v>
       </c>
       <c r="E283" s="11" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F283" s="14" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G283" s="15" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H283" s="11" t="n">
         <v>1024</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="n">
-        <v>4501720913</v>
+        <v>17023633</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C284" s="16" t="n">
-        <v>43403</v>
+        <v>43518</v>
       </c>
       <c r="D284" s="16" t="n">
-        <v>43576</v>
+        <v>43587</v>
       </c>
       <c r="E284" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F284" s="11" t="n">
-        <v>100</v>
+        <v>203</v>
+      </c>
+      <c r="F284" s="14" t="n">
+        <v>180</v>
       </c>
       <c r="G284" s="15" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="H284" s="11" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="6" t="s">
-        <v>239</v>
+      <c r="A285" s="6" t="n">
+        <v>17023643</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="C285" s="16" t="n">
-        <v>43437</v>
+        <v>43529</v>
       </c>
       <c r="D285" s="16" t="n">
-        <v>43576</v>
+        <v>43591</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="F285" s="10" t="n">
-        <v>3560</v>
+        <v>250</v>
       </c>
       <c r="G285" s="9" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="H285" s="7" t="n">
         <v>1024</v>
@@ -9400,95 +9370,95 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="6" t="s">
-        <v>240</v>
+      <c r="A286" s="6" t="n">
+        <v>17023642</v>
       </c>
       <c r="B286" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C286" s="16" t="n">
+        <v>43528</v>
+      </c>
+      <c r="D286" s="16" t="n">
+        <v>43592</v>
+      </c>
+      <c r="E286" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F286" s="10" t="n">
+        <v>695</v>
+      </c>
+      <c r="G286" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H286" s="7" t="n">
+        <v>1024</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B287" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C286" s="16" t="n">
+      <c r="C287" s="16" t="n">
         <v>43559</v>
       </c>
-      <c r="D286" s="16" t="n">
-        <v>43576</v>
-      </c>
-      <c r="E286" s="17" t="s">
+      <c r="D287" s="16" t="n">
+        <v>43592</v>
+      </c>
+      <c r="E287" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F286" s="14" t="n">
-        <v>500</v>
-      </c>
-      <c r="G286" s="15" t="s">
+      <c r="F287" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G287" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H286" s="11" t="n">
-        <v>1025</v>
-      </c>
-      <c r="I286" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="6" t="n">
-        <v>17021922</v>
-      </c>
-      <c r="B287" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C287" s="16" t="n">
-        <v>43333</v>
-      </c>
-      <c r="D287" s="16" t="n">
-        <v>43577</v>
-      </c>
-      <c r="E287" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F287" s="10" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G287" s="9" t="s">
-        <v>243</v>
-      </c>
       <c r="H287" s="7" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="6" t="n">
-        <v>17023435</v>
+      <c r="A288" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C288" s="16" t="n">
-        <v>43510</v>
+        <v>43559</v>
       </c>
       <c r="D288" s="16" t="n">
-        <v>43577</v>
+        <v>43592</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="F288" s="10" t="n">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="G288" s="9" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c r="H288" s="7" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="B289" s="11" t="s">
         <v>18</v>
@@ -9497,132 +9467,132 @@
         <v>43559</v>
       </c>
       <c r="D289" s="16" t="n">
-        <v>43585</v>
-      </c>
-      <c r="E289" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F289" s="10" t="n">
-        <v>300</v>
-      </c>
-      <c r="G289" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H289" s="7" t="n">
-        <v>1025</v>
+        <v>43592</v>
+      </c>
+      <c r="E289" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F289" s="14" t="n">
+        <v>500</v>
+      </c>
+      <c r="G289" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="H289" s="11" t="n">
+        <v>1024</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="6" t="s">
-        <v>244</v>
+      <c r="A290" s="6" t="n">
+        <v>17023649</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C290" s="16" t="n">
-        <v>43559</v>
+        <v>43538</v>
       </c>
       <c r="D290" s="16" t="n">
-        <v>43585</v>
-      </c>
-      <c r="E290" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F290" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G290" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H290" s="11" t="n">
-        <v>1025</v>
+        <v>43594</v>
+      </c>
+      <c r="E290" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F290" s="10" t="n">
+        <v>800</v>
+      </c>
+      <c r="G290" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H290" s="7" t="n">
+        <v>1024</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="n">
-        <v>17023678</v>
+        <v>17023363</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>25</v>
+        <v>240</v>
       </c>
       <c r="C291" s="16" t="n">
-        <v>43523</v>
+        <v>43545</v>
       </c>
       <c r="D291" s="16" t="n">
-        <v>43586</v>
+        <v>43600</v>
       </c>
       <c r="E291" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F291" s="14" t="n">
-        <v>540</v>
-      </c>
-      <c r="G291" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="H291" s="11" t="n">
+        <v>241</v>
+      </c>
+      <c r="F291" s="10" t="n">
+        <v>350</v>
+      </c>
+      <c r="G291" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H291" s="7" t="n">
         <v>1024</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="n">
-        <v>17023633</v>
+        <v>17023504</v>
       </c>
       <c r="B292" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C292" s="16" t="n">
-        <v>43518</v>
+        <v>43532</v>
       </c>
       <c r="D292" s="16" t="n">
-        <v>43587</v>
-      </c>
-      <c r="E292" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F292" s="14" t="n">
-        <v>180</v>
-      </c>
-      <c r="G292" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="H292" s="11" t="n">
-        <v>1024</v>
+        <v>43605</v>
+      </c>
+      <c r="E292" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F292" s="10" t="n">
+        <v>792</v>
+      </c>
+      <c r="G292" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H292" s="7" t="n">
+        <v>1025</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="n">
-        <v>17023643</v>
+        <v>17023504</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="C293" s="16" t="n">
-        <v>43529</v>
+        <v>43532</v>
       </c>
       <c r="D293" s="16" t="n">
-        <v>43591</v>
+        <v>43605</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="F293" s="10" t="n">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="G293" s="9" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="H293" s="7" t="n">
         <v>1024</v>
@@ -9633,25 +9603,25 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6" t="n">
-        <v>17023642</v>
+        <v>17023506</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="C294" s="16" t="n">
-        <v>43528</v>
+        <v>43546</v>
       </c>
       <c r="D294" s="16" t="n">
-        <v>43592</v>
+        <v>43605</v>
       </c>
       <c r="E294" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F294" s="10" t="n">
-        <v>695</v>
+        <v>600</v>
       </c>
       <c r="G294" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H294" s="7" t="n">
         <v>1024</v>
@@ -9662,231 +9632,231 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C295" s="16" t="n">
-        <v>43559</v>
+        <v>43539</v>
       </c>
       <c r="D295" s="16" t="n">
-        <v>43592</v>
-      </c>
-      <c r="E295" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F295" s="10" t="n">
+        <v>43605</v>
+      </c>
+      <c r="E295" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F295" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G295" s="9" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H295" s="7" t="n">
         <v>1025</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C296" s="16" t="n">
-        <v>43559</v>
+        <v>43539</v>
       </c>
       <c r="D296" s="16" t="n">
-        <v>43592</v>
+        <v>43605</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F296" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="F296" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G296" s="9" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="H296" s="7" t="n">
         <v>1025</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C297" s="16" t="n">
-        <v>43559</v>
+        <v>43539</v>
       </c>
       <c r="D297" s="16" t="n">
-        <v>43592</v>
-      </c>
-      <c r="E297" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="F297" s="14" t="n">
-        <v>500</v>
-      </c>
-      <c r="G297" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="H297" s="11" t="n">
-        <v>1024</v>
+        <v>43605</v>
+      </c>
+      <c r="E297" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F297" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G297" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H297" s="7" t="n">
+        <v>1025</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="6" t="n">
-        <v>17023649</v>
+      <c r="A298" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C298" s="16" t="n">
-        <v>43538</v>
+        <v>43539</v>
       </c>
       <c r="D298" s="16" t="n">
-        <v>43594</v>
+        <v>43605</v>
       </c>
       <c r="E298" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F298" s="10" t="n">
-        <v>800</v>
+        <v>51</v>
+      </c>
+      <c r="F298" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="G298" s="9" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="H298" s="7" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="6" t="n">
-        <v>17023363</v>
+      <c r="A299" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="C299" s="16" t="n">
-        <v>43545</v>
+        <v>43539</v>
       </c>
       <c r="D299" s="16" t="n">
-        <v>43600</v>
-      </c>
-      <c r="E299" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="F299" s="10" t="n">
-        <v>350</v>
+        <v>43605</v>
+      </c>
+      <c r="E299" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F299" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="G299" s="9" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="H299" s="7" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="6" t="n">
-        <v>17023504</v>
+      <c r="A300" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C300" s="16" t="n">
-        <v>43532</v>
+        <v>43539</v>
       </c>
       <c r="D300" s="16" t="n">
         <v>43605</v>
       </c>
       <c r="E300" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F300" s="10" t="n">
-        <v>792</v>
+        <v>187</v>
+      </c>
+      <c r="F300" s="7" t="n">
+        <v>249</v>
       </c>
       <c r="G300" s="9" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="H300" s="7" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="6" t="n">
-        <v>17023504</v>
+      <c r="A301" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C301" s="16" t="n">
-        <v>43532</v>
-      </c>
-      <c r="D301" s="16" t="n">
+        <v>43539</v>
+      </c>
+      <c r="D301" s="8" t="n">
         <v>43605</v>
       </c>
       <c r="E301" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F301" s="10" t="n">
-        <v>216</v>
+        <v>45</v>
+      </c>
+      <c r="F301" s="7" t="n">
+        <v>51</v>
       </c>
       <c r="G301" s="9" t="s">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="H301" s="7" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="I301" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="6" t="n">
-        <v>17023506</v>
+      <c r="A302" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C302" s="16" t="n">
-        <v>43546</v>
-      </c>
-      <c r="D302" s="16" t="n">
+        <v>43539</v>
+      </c>
+      <c r="D302" s="8" t="n">
         <v>43605</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F302" s="10" t="n">
-        <v>600</v>
+        <v>47</v>
+      </c>
+      <c r="F302" s="7" t="n">
+        <v>273</v>
       </c>
       <c r="G302" s="9" t="s">
-        <v>254</v>
+        <v>48</v>
       </c>
       <c r="H302" s="7" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="I302" s="1" t="s">
         <v>13</v>
@@ -9894,7 +9864,7 @@
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B303" s="11" t="s">
         <v>37</v>
@@ -9902,28 +9872,28 @@
       <c r="C303" s="16" t="n">
         <v>43539</v>
       </c>
-      <c r="D303" s="16" t="n">
+      <c r="D303" s="8" t="n">
         <v>43605</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F303" s="7" t="n">
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="G303" s="9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H303" s="7" t="n">
         <v>1025</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B304" s="11" t="s">
         <v>37</v>
@@ -9931,75 +9901,75 @@
       <c r="C304" s="16" t="n">
         <v>43539</v>
       </c>
-      <c r="D304" s="16" t="n">
+      <c r="D304" s="8" t="n">
         <v>43605</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="F304" s="7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G304" s="9" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="H304" s="7" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="6" t="s">
-        <v>255</v>
+      <c r="A305" s="6" t="n">
+        <v>17023507</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C305" s="16" t="n">
-        <v>43539</v>
-      </c>
-      <c r="D305" s="16" t="n">
-        <v>43605</v>
+        <v>43546</v>
+      </c>
+      <c r="D305" s="8" t="n">
+        <v>43606</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F305" s="7" t="n">
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c r="F305" s="10" t="n">
+        <v>350</v>
       </c>
       <c r="G305" s="9" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="H305" s="7" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C306" s="16" t="n">
-        <v>43539</v>
-      </c>
-      <c r="D306" s="16" t="n">
-        <v>43605</v>
+        <v>43559</v>
+      </c>
+      <c r="D306" s="8" t="n">
+        <v>43606</v>
       </c>
       <c r="E306" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F306" s="7" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="F306" s="10" t="n">
+        <v>1000</v>
       </c>
       <c r="G306" s="9" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="H306" s="7" t="n">
         <v>1025</v>
@@ -10010,199 +9980,199 @@
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C307" s="16" t="n">
-        <v>43539</v>
-      </c>
-      <c r="D307" s="16" t="n">
-        <v>43605</v>
+        <v>43559</v>
+      </c>
+      <c r="D307" s="8" t="n">
+        <v>43606</v>
       </c>
       <c r="E307" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F307" s="7" t="n">
-        <v>3</v>
+        <v>238</v>
+      </c>
+      <c r="F307" s="10" t="n">
+        <v>500</v>
       </c>
       <c r="G307" s="9" t="s">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c r="H307" s="7" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I307" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="6" t="s">
-        <v>255</v>
+      <c r="A308" s="6" t="n">
+        <v>17023364</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="C308" s="16" t="n">
-        <v>43539</v>
+        <v>43545</v>
       </c>
       <c r="D308" s="16" t="n">
-        <v>43605</v>
-      </c>
-      <c r="E308" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F308" s="7" t="n">
-        <v>249</v>
-      </c>
-      <c r="G308" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="H308" s="7" t="n">
+        <v>43607</v>
+      </c>
+      <c r="E308" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="F308" s="14" t="n">
+        <v>461</v>
+      </c>
+      <c r="G308" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="H308" s="11" t="n">
         <v>1024</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="6" t="s">
-        <v>255</v>
+      <c r="A309" s="6" t="n">
+        <v>17023461</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C309" s="16" t="n">
-        <v>43539</v>
-      </c>
-      <c r="D309" s="8" t="n">
-        <v>43605</v>
+        <v>43558</v>
+      </c>
+      <c r="D309" s="16" t="n">
+        <v>43619</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F309" s="7" t="n">
-        <v>51</v>
+        <v>205</v>
+      </c>
+      <c r="F309" s="10" t="n">
+        <v>4920</v>
       </c>
       <c r="G309" s="9" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="H309" s="7" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="6" t="s">
-        <v>255</v>
+      <c r="A310" s="6" t="n">
+        <v>17023658</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="C310" s="16" t="n">
         <v>43539</v>
       </c>
-      <c r="D310" s="8" t="n">
-        <v>43605</v>
-      </c>
-      <c r="E310" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F310" s="7" t="n">
-        <v>273</v>
-      </c>
-      <c r="G310" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H310" s="7" t="n">
-        <v>1025</v>
+      <c r="D310" s="16" t="n">
+        <v>43619</v>
+      </c>
+      <c r="E310" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F310" s="14" t="n">
+        <v>500</v>
+      </c>
+      <c r="G310" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="H310" s="11" t="n">
+        <v>1024</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="6" t="s">
-        <v>255</v>
+      <c r="A311" s="6" t="n">
+        <v>17023668</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C311" s="16" t="n">
-        <v>43539</v>
-      </c>
-      <c r="D311" s="8" t="n">
-        <v>43605</v>
+        <v>43572</v>
+      </c>
+      <c r="D311" s="16" t="n">
+        <v>43619</v>
       </c>
       <c r="E311" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F311" s="7" t="n">
-        <v>953</v>
+        <v>191</v>
+      </c>
+      <c r="F311" s="10" t="n">
+        <v>300</v>
       </c>
       <c r="G311" s="9" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="H311" s="7" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I311" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="6" t="s">
+      <c r="A312" s="6" t="n">
+        <v>17023880</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C312" s="16" t="n">
+        <v>43574</v>
+      </c>
+      <c r="D312" s="16" t="n">
+        <v>43621</v>
+      </c>
+      <c r="E312" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B312" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C312" s="16" t="n">
-        <v>43539</v>
-      </c>
-      <c r="D312" s="8" t="n">
-        <v>43605</v>
-      </c>
-      <c r="E312" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F312" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G312" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="H312" s="7" t="n">
+      <c r="F312" s="14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G312" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H312" s="11" t="n">
         <v>1024</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="n">
-        <v>17023507</v>
+        <v>17023466</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>25</v>
+        <v>257</v>
       </c>
       <c r="C313" s="16" t="n">
-        <v>43546</v>
-      </c>
-      <c r="D313" s="8" t="n">
-        <v>43606</v>
+        <v>43567</v>
+      </c>
+      <c r="D313" s="16" t="n">
+        <v>43623</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F313" s="10" t="n">
         <v>350</v>
       </c>
       <c r="G313" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H313" s="7" t="n">
         <v>1024</v>
@@ -10212,848 +10182,624 @@
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="6" t="s">
-        <v>258</v>
+      <c r="A314" s="6" t="n">
+        <v>17023825</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C314" s="16" t="n">
-        <v>43559</v>
-      </c>
-      <c r="D314" s="8" t="n">
-        <v>43606</v>
-      </c>
-      <c r="E314" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F314" s="10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G314" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H314" s="7" t="n">
-        <v>1025</v>
+        <v>43565</v>
+      </c>
+      <c r="D314" s="16" t="n">
+        <v>43627</v>
+      </c>
+      <c r="E314" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F314" s="14" t="n">
+        <v>280</v>
+      </c>
+      <c r="G314" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H314" s="11" t="n">
+        <v>1024</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C315" s="16" t="n">
-        <v>43559</v>
-      </c>
-      <c r="D315" s="8" t="n">
-        <v>43606</v>
+        <v>43437</v>
+      </c>
+      <c r="D315" s="16" t="n">
+        <v>43630</v>
       </c>
       <c r="E315" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="F315" s="10" t="n">
-        <v>500</v>
+        <v>3560</v>
       </c>
       <c r="G315" s="9" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="H315" s="7" t="n">
         <v>1024</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="n">
-        <v>17023364</v>
+        <v>17023467</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C316" s="16" t="n">
-        <v>43545</v>
+        <v>43579</v>
       </c>
       <c r="D316" s="16" t="n">
-        <v>43607</v>
+        <v>43630</v>
       </c>
       <c r="E316" s="11" t="s">
-        <v>260</v>
+        <v>123</v>
       </c>
       <c r="F316" s="14" t="n">
-        <v>461</v>
+        <v>230</v>
       </c>
       <c r="G316" s="15" t="s">
-        <v>261</v>
+        <v>124</v>
       </c>
       <c r="H316" s="11" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="I316" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="6" t="n">
-        <v>17023461</v>
+      <c r="A317" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="C317" s="16" t="n">
-        <v>43558</v>
-      </c>
-      <c r="D317" s="16" t="n">
-        <v>43619</v>
+        <v>43572</v>
+      </c>
+      <c r="D317" s="8" t="n">
+        <v>43636</v>
       </c>
       <c r="E317" s="7" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="F317" s="10" t="n">
-        <v>4920</v>
+        <v>1000</v>
       </c>
       <c r="G317" s="9" t="s">
-        <v>206</v>
+        <v>65</v>
       </c>
       <c r="H317" s="7" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="6" t="n">
-        <v>17023658</v>
+      <c r="A318" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>262</v>
+        <v>37</v>
       </c>
       <c r="C318" s="16" t="n">
         <v>43539</v>
       </c>
       <c r="D318" s="16" t="n">
-        <v>43619</v>
+        <v>43636</v>
       </c>
       <c r="E318" s="11" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="F318" s="14" t="n">
-        <v>500</v>
+        <v>64.9</v>
       </c>
       <c r="G318" s="15" t="s">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="H318" s="11" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="6" t="n">
-        <v>17023668</v>
+      <c r="A319" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C319" s="16" t="n">
-        <v>43572</v>
+        <v>43539</v>
       </c>
       <c r="D319" s="16" t="n">
-        <v>43619</v>
-      </c>
-      <c r="E319" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F319" s="10" t="n">
-        <v>300</v>
-      </c>
-      <c r="G319" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="H319" s="7" t="n">
-        <v>1024</v>
+        <v>43636</v>
+      </c>
+      <c r="E319" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F319" s="14" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="G319" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H319" s="11" t="n">
+        <v>1025</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="6" t="n">
-        <v>17023880</v>
+      <c r="A320" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="C320" s="16" t="n">
-        <v>43574</v>
+        <v>43539</v>
       </c>
       <c r="D320" s="16" t="n">
-        <v>43621</v>
+        <v>43636</v>
       </c>
       <c r="E320" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F320" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G320" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H320" s="11" t="n">
+        <v>1025</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="F320" s="14" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G320" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H320" s="11" t="n">
-        <v>1024</v>
-      </c>
-      <c r="I320" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="6" t="n">
-        <v>17023466</v>
-      </c>
       <c r="B321" s="11" t="s">
-        <v>267</v>
+        <v>37</v>
       </c>
       <c r="C321" s="16" t="n">
-        <v>43567</v>
+        <v>43539</v>
       </c>
       <c r="D321" s="16" t="n">
-        <v>43623</v>
-      </c>
-      <c r="E321" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F321" s="10" t="n">
-        <v>350</v>
-      </c>
-      <c r="G321" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="H321" s="7" t="n">
-        <v>1024</v>
+        <v>43636</v>
+      </c>
+      <c r="E321" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F321" s="14" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="G321" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H321" s="11" t="n">
+        <v>1025</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="6" t="n">
-        <v>17023825</v>
+      <c r="A322" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C322" s="16" t="n">
-        <v>43565</v>
+        <v>43539</v>
       </c>
       <c r="D322" s="16" t="n">
-        <v>43627</v>
+        <v>43636</v>
       </c>
       <c r="E322" s="11" t="s">
-        <v>270</v>
+        <v>53</v>
       </c>
       <c r="F322" s="14" t="n">
-        <v>280</v>
+        <v>26.4</v>
       </c>
       <c r="G322" s="15" t="s">
-        <v>271</v>
+        <v>54</v>
       </c>
       <c r="H322" s="11" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B323" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C323" s="16" t="n">
-        <v>43437</v>
-      </c>
-      <c r="D323" s="16" t="n">
-        <v>43630</v>
+        <v>265</v>
+      </c>
+      <c r="B323" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C323" s="8" t="n">
+        <v>43539</v>
+      </c>
+      <c r="D323" s="8" t="n">
+        <v>43636</v>
       </c>
       <c r="E323" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F323" s="10" t="n">
-        <v>3560</v>
+        <v>0</v>
       </c>
       <c r="G323" s="9" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H323" s="7" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="6" t="n">
-        <v>17023467</v>
-      </c>
-      <c r="B324" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C324" s="16" t="n">
-        <v>43579</v>
+      <c r="A324" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B324" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C324" s="8" t="n">
+        <v>43539</v>
       </c>
       <c r="D324" s="16" t="n">
-        <v>43630</v>
+        <v>43636</v>
       </c>
       <c r="E324" s="11" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="F324" s="14" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G324" s="15" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="H324" s="11" t="n">
         <v>1025</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B325" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C325" s="16" t="n">
-        <v>43572</v>
-      </c>
-      <c r="D325" s="8" t="n">
+        <v>265</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C325" s="8" t="n">
+        <v>43539</v>
+      </c>
+      <c r="D325" s="16" t="n">
         <v>43636</v>
       </c>
-      <c r="E325" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F325" s="10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G325" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H325" s="7" t="n">
+      <c r="E325" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F325" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G325" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H325" s="11" t="n">
         <v>1025</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B326" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B326" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C326" s="16" t="n">
+      <c r="C326" s="8" t="n">
         <v>43539</v>
       </c>
       <c r="D326" s="16" t="n">
         <v>43636</v>
       </c>
       <c r="E326" s="11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F326" s="14" t="n">
-        <v>64.9</v>
+        <v>96.6850828729282</v>
       </c>
       <c r="G326" s="15" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H326" s="11" t="n">
         <v>1025</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="6" t="s">
-        <v>275</v>
+      <c r="A327" s="6" t="n">
+        <v>17023833</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C327" s="16" t="n">
-        <v>43539</v>
-      </c>
-      <c r="D327" s="16" t="n">
-        <v>43636</v>
-      </c>
-      <c r="E327" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F327" s="14" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="G327" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H327" s="11" t="n">
+        <v>43578</v>
+      </c>
+      <c r="D327" s="8" t="n">
+        <v>43640</v>
+      </c>
+      <c r="E327" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F327" s="10" t="n">
+        <v>432</v>
+      </c>
+      <c r="G327" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H327" s="7" t="n">
         <v>1025</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="6" t="s">
-        <v>275</v>
+      <c r="A328" s="6" t="n">
+        <v>17023833</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C328" s="16" t="n">
-        <v>43539</v>
-      </c>
-      <c r="D328" s="16" t="n">
-        <v>43636</v>
-      </c>
-      <c r="E328" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F328" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G328" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H328" s="11" t="n">
-        <v>1025</v>
+        <v>43578</v>
+      </c>
+      <c r="D328" s="8" t="n">
+        <v>43640</v>
+      </c>
+      <c r="E328" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F328" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="G328" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H328" s="7" t="n">
+        <v>1024</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C329" s="16" t="n">
-        <v>43539</v>
+        <v>18</v>
+      </c>
+      <c r="C329" s="8" t="n">
+        <v>43468</v>
       </c>
       <c r="D329" s="16" t="n">
-        <v>43636</v>
+        <v>43646</v>
       </c>
       <c r="E329" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F329" s="14" t="n">
-        <v>56.1</v>
+        <v>266</v>
+      </c>
+      <c r="F329" s="11" t="n">
+        <v>700</v>
       </c>
       <c r="G329" s="15" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="H329" s="11" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="6" t="s">
-        <v>275</v>
+      <c r="A330" s="6" t="n">
+        <v>17023460</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="C330" s="16" t="n">
-        <v>43539</v>
+        <v>43558</v>
       </c>
       <c r="D330" s="16" t="n">
-        <v>43636</v>
+        <v>43647</v>
       </c>
       <c r="E330" s="11" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="F330" s="14" t="n">
-        <v>26.4</v>
+        <v>72</v>
       </c>
       <c r="G330" s="15" t="s">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="H330" s="11" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B331" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C331" s="8" t="n">
-        <v>43539</v>
-      </c>
-      <c r="D331" s="8" t="n">
-        <v>43636</v>
-      </c>
-      <c r="E331" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F331" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G331" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H331" s="7" t="n">
-        <v>1025</v>
+      <c r="A331" s="6" t="n">
+        <v>17023884</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C331" s="16" t="n">
+        <v>43589</v>
+      </c>
+      <c r="D331" s="16" t="n">
+        <v>43648</v>
+      </c>
+      <c r="E331" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F331" s="14" t="n">
+        <v>288</v>
+      </c>
+      <c r="G331" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="H331" s="11" t="n">
+        <v>1024</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B332" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C332" s="8" t="n">
-        <v>43539</v>
+      <c r="A332" s="6" t="n">
+        <v>17023884</v>
+      </c>
+      <c r="B332" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C332" s="16" t="n">
+        <v>43589</v>
       </c>
       <c r="D332" s="16" t="n">
-        <v>43636</v>
-      </c>
-      <c r="E332" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F332" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G332" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H332" s="11" t="n">
-        <v>1025</v>
+        <v>43648</v>
+      </c>
+      <c r="E332" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F332" s="10" t="n">
+        <v>308</v>
+      </c>
+      <c r="G332" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H332" s="7" t="n">
+        <v>1024</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B333" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C333" s="8" t="n">
-        <v>43539</v>
+        <v>271</v>
+      </c>
+      <c r="B333" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C333" s="16" t="n">
+        <v>43437</v>
       </c>
       <c r="D333" s="16" t="n">
-        <v>43636</v>
-      </c>
-      <c r="E333" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F333" s="14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G333" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H333" s="11" t="n">
-        <v>1025</v>
+        <v>43698</v>
+      </c>
+      <c r="E333" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F333" s="10" t="n">
+        <v>3560</v>
+      </c>
+      <c r="G333" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H333" s="7" t="n">
+        <v>1024</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B334" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C334" s="8" t="n">
-        <v>43539</v>
-      </c>
-      <c r="D334" s="16" t="n">
-        <v>43636</v>
+        <v>272</v>
+      </c>
+      <c r="B334" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C334" s="16" t="n">
+        <v>43437</v>
+      </c>
+      <c r="D334" s="8" t="n">
+        <v>43729</v>
       </c>
       <c r="E334" s="11" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F334" s="14" t="n">
-        <v>96.6850828729282</v>
+        <v>3560</v>
       </c>
       <c r="G334" s="15" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H334" s="11" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I334" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="6" t="n">
-        <v>17023833</v>
-      </c>
-      <c r="B335" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C335" s="16" t="n">
-        <v>43578</v>
-      </c>
-      <c r="D335" s="8" t="n">
-        <v>43640</v>
-      </c>
-      <c r="E335" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F335" s="10" t="n">
-        <v>432</v>
-      </c>
-      <c r="G335" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H335" s="7" t="n">
-        <v>1025</v>
-      </c>
-      <c r="I335" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="6" t="n">
-        <v>17023833</v>
-      </c>
-      <c r="B336" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C336" s="16" t="n">
-        <v>43578</v>
-      </c>
-      <c r="D336" s="8" t="n">
-        <v>43640</v>
-      </c>
-      <c r="E336" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F336" s="10" t="n">
-        <v>80</v>
-      </c>
-      <c r="G336" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H336" s="7" t="n">
-        <v>1024</v>
-      </c>
-      <c r="I336" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B337" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C337" s="8" t="n">
-        <v>43468</v>
-      </c>
-      <c r="D337" s="16" t="n">
-        <v>43646</v>
-      </c>
-      <c r="E337" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="F337" s="11" t="n">
-        <v>700</v>
-      </c>
-      <c r="G337" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="H337" s="11" t="n">
-        <v>1024</v>
-      </c>
-      <c r="I337" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="6" t="n">
-        <v>17023460</v>
-      </c>
-      <c r="B338" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C338" s="16" t="n">
-        <v>43558</v>
-      </c>
-      <c r="D338" s="16" t="n">
-        <v>43647</v>
-      </c>
-      <c r="E338" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="F338" s="14" t="n">
-        <v>72</v>
-      </c>
-      <c r="G338" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="H338" s="11" t="n">
-        <v>1024</v>
-      </c>
-      <c r="I338" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="6" t="n">
-        <v>17023884</v>
-      </c>
-      <c r="B339" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C339" s="16" t="n">
-        <v>43589</v>
-      </c>
-      <c r="D339" s="16" t="n">
-        <v>43648</v>
-      </c>
-      <c r="E339" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="F339" s="14" t="n">
-        <v>288</v>
-      </c>
-      <c r="G339" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="H339" s="11" t="n">
-        <v>1024</v>
-      </c>
-      <c r="I339" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="6" t="n">
-        <v>17023884</v>
-      </c>
-      <c r="B340" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C340" s="16" t="n">
-        <v>43589</v>
-      </c>
-      <c r="D340" s="16" t="n">
-        <v>43648</v>
-      </c>
-      <c r="E340" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F340" s="10" t="n">
-        <v>308</v>
-      </c>
-      <c r="G340" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="H340" s="7" t="n">
-        <v>1024</v>
-      </c>
-      <c r="I340" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B341" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C341" s="16" t="n">
-        <v>43437</v>
-      </c>
-      <c r="D341" s="16" t="n">
-        <v>43698</v>
-      </c>
-      <c r="E341" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F341" s="10" t="n">
-        <v>3560</v>
-      </c>
-      <c r="G341" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H341" s="7" t="n">
-        <v>1024</v>
-      </c>
-      <c r="I341" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B342" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C342" s="16" t="n">
-        <v>43437</v>
-      </c>
-      <c r="D342" s="8" t="n">
-        <v>43729</v>
-      </c>
-      <c r="E342" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F342" s="14" t="n">
-        <v>3560</v>
-      </c>
-      <c r="G342" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H342" s="11" t="n">
-        <v>1024</v>
-      </c>
-      <c r="I342" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:I342">
+  <autoFilter ref="A1:I334">
     <filterColumn colId="8">
       <customFilters and="true">
         <customFilter operator="equal" val="Tmmthpkhti Limi"/>
